--- a/RobotB/TestingData/SingleFlywheelTesting.xlsx
+++ b/RobotB/TestingData/SingleFlywheelTesting.xlsx
@@ -3143,7 +3143,7 @@
   <dimension ref="B1:I642"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,6 +3155,7 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.140625" customWidth="1"/>
     <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
